--- a/outputs/HRT/gridsearch_results/gridsearch_Naive Bayes_results.xlsx
+++ b/outputs/HRT/gridsearch_results/gridsearch_Naive Bayes_results.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'classifier__var_smoothing': 1e-09, 'scaler': None}</t>
+          <t>{'classifier__var_smoothing': 1e-05, 'scaler': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -512,14 +512,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'classifier__var_smoothing': 0.001, 'scaler': MinMaxScaler()}</t>
+          <t>{'classifier__var_smoothing': 1e-09, 'scaler': MinMaxScaler()}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9302967433402216</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -541,14 +541,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'classifier__var_smoothing': 0.001, 'scaler': MaxAbsScaler()}</t>
+          <t>{'classifier__var_smoothing': 1e-09, 'scaler': MaxAbsScaler()}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9302967433402216</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9414213562373096</v>
+        <v>0.9825741858350554</v>
       </c>
       <c r="E5" t="n">
-        <v>0.117157287525381</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -599,14 +599,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'classifier__var_smoothing': 0.001, 'scaler': StandardScaler()}</t>
+          <t>{'classifier__var_smoothing': 1e-09, 'scaler': StandardScaler()}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9302967433402216</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9414213562373096</v>
+        <v>0.9302967433402216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.117157287525381</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'classifier__var_smoothing': 1e-09, 'scaler': FunctionTransformer()}</t>
+          <t>{'classifier__var_smoothing': 1e-05, 'scaler': FunctionTransformer()}</t>
         </is>
       </c>
       <c r="D8" t="n">
